--- a/20-economic/21-hh-income/raw/CPI_U_RS.xlsx
+++ b/20-economic/21-hh-income/raw/CPI_U_RS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\sourcebook\sourcebook-evm\sourcebook\20-economic\21-hh-income\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33655E8C-F267-4650-BE7F-77A5AD09C456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85CAC9D-E61D-4DD6-B916-2D3AAFD97BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7830" yWindow="4395" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPI-U-RS" sheetId="1" r:id="rId1"/>
@@ -25,26 +25,7 @@
     <t>Year</t>
   </si>
   <si>
-    <r>
-      <t>CPI-U-RS</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Index</t>
-    </r>
+    <t>cpi_index</t>
   </si>
 </sst>
 </file>
@@ -55,18 +36,12 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Courier New"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -187,11 +162,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -537,8 +512,8 @@
   </sheetPr>
   <dimension ref="A1:UX11849"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -551,7 +526,7 @@
     <col min="571" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -909,7 +884,7 @@
       <c r="C36" s="14"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>1982</v>
       </c>
